--- a/3.results/model_selection/petit_puffin_HR_2_covariates_blocks.xlsx
+++ b/3.results/model_selection/petit_puffin_HR_2_covariates_blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87432B-4413-4744-984F-40208CFD09E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915AB327-99B4-4604-BAD2-E1FFCD6C18E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="static_covs" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1072,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1148,16 +1147,16 @@
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0209999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C2" s="1">
-        <v>220.6</v>
+        <v>309</v>
       </c>
       <c r="D2" s="1">
         <v>0.66</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F2" s="1">
         <v>0.2</v>
@@ -1169,7 +1168,7 @@
         <v>0.36</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>839</v>
@@ -1184,16 +1183,16 @@
         <v>1591</v>
       </c>
       <c r="N2" s="1">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O2" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P2" s="1">
         <v>495</v>
       </c>
       <c r="Q2" s="1">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1205,25 +1204,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>1.004</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>441.8</v>
+        <v>443</v>
       </c>
       <c r="D3" s="1">
         <v>0.66</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1">
         <v>0.12</v>
       </c>
       <c r="G3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I3" s="1">
         <v>0.5</v>
@@ -1244,21 +1243,21 @@
         <v>760</v>
       </c>
       <c r="O3" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P3" s="1">
         <v>448</v>
       </c>
       <c r="Q3" s="1">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>-3.04</v>
+        <v>-3.02</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1266,13 +1265,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>492.8</v>
+        <v>540.29999999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="1">
         <v>0.51</v>
@@ -1281,10 +1280,10 @@
         <v>0.22</v>
       </c>
       <c r="G4" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
@@ -1293,13 +1292,13 @@
         <v>797</v>
       </c>
       <c r="K4" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L4" s="1">
         <v>470</v>
       </c>
       <c r="M4" s="1">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="N4" s="1">
         <v>795</v>
@@ -1308,13 +1307,13 @@
         <v>243</v>
       </c>
       <c r="P4" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="1">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="R4" s="1">
-        <v>-1.93</v>
+        <v>-1.91</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
@@ -1327,28 +1326,28 @@
         <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0389999999999999</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>433.7</v>
+        <v>384</v>
       </c>
       <c r="D5" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="1">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>757</v>
@@ -1357,13 +1356,13 @@
         <v>242</v>
       </c>
       <c r="L5" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M5" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="N5" s="1">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O5" s="1">
         <v>238</v>
@@ -1372,19 +1371,19 @@
         <v>451</v>
       </c>
       <c r="Q5" s="1">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="R5" s="1">
-        <v>-1.1499999999999999</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-2.31</v>
+        <v>-2.35</v>
       </c>
       <c r="T5" s="1">
         <v>0.3</v>
       </c>
       <c r="U5" s="1">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1433,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="15">
-      <formula>J2&lt;762</formula>
+      <formula>J2&lt;760</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -1447,7 +1446,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="13">
-      <formula>K2&lt;247</formula>
+      <formula>K2&lt;245</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -1460,7 +1459,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="11">
-      <formula>L2&lt;461</formula>
+      <formula>L2&lt;460</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -1473,7 +1472,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="9">
-      <formula>M2&lt;1460</formula>
+      <formula>M2&lt;1459</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -1486,7 +1485,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="7">
-      <formula>N2&lt;759</formula>
+      <formula>N2&lt;758</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -1499,7 +1498,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="5">
-      <formula>O2&lt;243</formula>
+      <formula>O2&lt;241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -1512,7 +1511,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="3">
-      <formula>P2&lt;453</formula>
+      <formula>P2&lt;451</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -1525,7 +1524,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="1">
-      <formula>Q2&lt;1448</formula>
+      <formula>Q2&lt;1447</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1538,7 +1537,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,16 +1636,16 @@
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0209999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C2" s="1">
-        <v>220.6</v>
+        <v>309</v>
       </c>
       <c r="D2" s="1">
         <v>0.66</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F2" s="1">
         <v>0.2</v>
@@ -1658,7 +1657,7 @@
         <v>0.36</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>839</v>
@@ -1673,16 +1672,16 @@
         <v>1591</v>
       </c>
       <c r="N2" s="1">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O2" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P2" s="1">
         <v>495</v>
       </c>
       <c r="Q2" s="1">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1702,16 +1701,16 @@
         <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>497</v>
+        <v>550.5</v>
       </c>
       <c r="D3" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
         <v>0.18</v>
@@ -1720,10 +1719,10 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J3" s="1">
         <v>824</v>
@@ -1741,13 +1740,13 @@
         <v>822</v>
       </c>
       <c r="O3" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P3" s="1">
         <v>486</v>
       </c>
       <c r="Q3" s="1">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1762,7 +1761,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="AC3" s="1"/>
     </row>
@@ -1771,28 +1770,28 @@
         <v>38</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0289999999999999</v>
+        <v>1.4359999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>120.1</v>
+        <v>124.4</v>
       </c>
       <c r="D4" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
         <v>0.34</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
         <v>837</v>
@@ -1807,7 +1806,7 @@
         <v>1586</v>
       </c>
       <c r="N4" s="1">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O4" s="1">
         <v>261</v>
@@ -1816,11 +1815,11 @@
         <v>492</v>
       </c>
       <c r="Q4" s="1">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1828,7 +1827,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -1840,10 +1839,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>1.085</v>
+        <v>1.367</v>
       </c>
       <c r="C5" s="1">
-        <v>301.8</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="D5" s="1">
         <v>0.66</v>
@@ -1852,16 +1851,16 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H5" s="1">
         <v>0.36</v>
       </c>
       <c r="I5" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>837</v>
@@ -1879,19 +1878,19 @@
         <v>837</v>
       </c>
       <c r="O5" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P5" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="1">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1899,7 +1898,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1909,28 +1908,28 @@
         <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>1.03</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>334.2</v>
+        <v>283.5</v>
       </c>
       <c r="D6" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E6" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F6" s="1">
         <v>0.2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="1">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I6" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J6" s="1">
         <v>839</v>
@@ -1945,19 +1944,19 @@
         <v>1586</v>
       </c>
       <c r="N6" s="1">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O6" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P6" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q6" s="1">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="R6" s="1">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1978,25 +1977,25 @@
         <v>41</v>
       </c>
       <c r="B7" s="1">
-        <v>1.012</v>
+        <v>1.018</v>
       </c>
       <c r="C7" s="1">
-        <v>290.7</v>
+        <v>353</v>
       </c>
       <c r="D7" s="1">
         <v>0.66</v>
       </c>
       <c r="E7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G7" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H7" s="1">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I7" s="1">
         <v>0.5</v>
@@ -2020,10 +2019,10 @@
         <v>225</v>
       </c>
       <c r="P7" s="1">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="1">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
@@ -2032,7 +2031,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <v>-2.62</v>
+        <v>-2.63</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -2042,7 +2041,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AC7" s="1"/>
     </row>
@@ -2051,28 +2050,28 @@
         <v>42</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0289999999999999</v>
+        <v>1.038</v>
       </c>
       <c r="C8" s="1">
-        <v>429</v>
+        <v>455.6</v>
       </c>
       <c r="D8" s="1">
         <v>0.67</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F8" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="G8" s="1">
         <v>0.51</v>
       </c>
       <c r="H8" s="1">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I8" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J8" s="1">
         <v>818</v>
@@ -2081,19 +2080,19 @@
         <v>238</v>
       </c>
       <c r="L8" s="1">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M8" s="1">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="N8" s="1">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O8" s="1">
         <v>238</v>
       </c>
       <c r="P8" s="1">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="1">
         <v>1545</v>
@@ -2102,10 +2101,10 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="V8" s="1">
-        <v>-1.95</v>
+        <v>-1.97</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -2124,13 +2123,13 @@
         <v>43</v>
       </c>
       <c r="B9" s="1">
-        <v>1.5760000000000001</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>72.099999999999994</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="D9" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
@@ -2139,13 +2138,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G9" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="1">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I9" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="J9" s="1">
         <v>832</v>
@@ -2166,14 +2165,14 @@
         <v>266</v>
       </c>
       <c r="P9" s="1">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q9" s="1">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
@@ -2183,39 +2182,39 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0309999999999999</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>692.7</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="D10" s="1">
         <v>0.67</v>
       </c>
       <c r="E10" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G10" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I10" s="1">
         <v>0.5</v>
@@ -2233,35 +2232,35 @@
         <v>1468</v>
       </c>
       <c r="N10" s="1">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O10" s="1">
         <v>227</v>
       </c>
       <c r="P10" s="1">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="1">
         <v>1466</v>
       </c>
       <c r="R10" s="1">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <v>-4.28</v>
+        <v>-4.25</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="AC10" s="1"/>
     </row>
@@ -2270,25 +2269,25 @@
         <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>1.034</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>308.8</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E11" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I11" s="1">
         <v>0.5</v>
@@ -2318,20 +2317,20 @@
         <v>1530</v>
       </c>
       <c r="R11" s="1">
-        <v>-2.5299999999999998</v>
+        <v>-2.58</v>
       </c>
       <c r="S11" s="1">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2343,22 +2342,22 @@
         <v>46</v>
       </c>
       <c r="B12" s="1">
-        <v>1.026</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>193.8</v>
+        <v>239.2</v>
       </c>
       <c r="D12" s="1">
         <v>0.66</v>
       </c>
       <c r="E12" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.49</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.51</v>
       </c>
       <c r="H12" s="1">
         <v>0.38</v>
@@ -2379,7 +2378,7 @@
         <v>1587</v>
       </c>
       <c r="N12" s="1">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O12" s="1">
         <v>260</v>
@@ -2388,20 +2387,20 @@
         <v>497</v>
       </c>
       <c r="Q12" s="1">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="R12" s="1">
-        <v>-0.55000000000000004</v>
+        <v>-0.53</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -2416,28 +2415,28 @@
         <v>47</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0189999999999999</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>282</v>
+        <v>311.7</v>
       </c>
       <c r="D13" s="1">
         <v>0.66</v>
       </c>
       <c r="E13" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G13" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H13" s="1">
         <v>0.63</v>
       </c>
       <c r="I13" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J13" s="1">
         <v>795</v>
@@ -2458,33 +2457,33 @@
         <v>227</v>
       </c>
       <c r="P13" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q13" s="1">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
       <c r="V13" s="1">
-        <v>-2.57</v>
+        <v>-2.56</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1">
         <v>0.31</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AC13" s="1"/>
     </row>
@@ -2493,10 +2492,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="C14" s="1">
-        <v>255.7</v>
+        <v>223.4</v>
       </c>
       <c r="D14" s="1">
         <v>0.67</v>
@@ -2505,16 +2504,16 @@
         <v>0.5</v>
       </c>
       <c r="F14" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="1">
         <v>0.66</v>
       </c>
       <c r="I14" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="1">
         <v>779</v>
@@ -2532,28 +2531,28 @@
         <v>779</v>
       </c>
       <c r="O14" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P14" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q14" s="1">
         <v>1467</v>
       </c>
       <c r="R14" s="1">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="S14" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <v>-4.18</v>
+        <v>-4.16</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="Y14" s="1">
         <v>0.24</v>
@@ -2566,20 +2565,20 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>1.014</v>
       </c>
       <c r="C15" s="1">
-        <v>788.4</v>
+        <v>765</v>
       </c>
       <c r="D15" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F15" s="1">
         <v>0.22</v>
@@ -2588,19 +2587,19 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="1">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="I15" s="1">
         <v>0.51</v>
       </c>
       <c r="J15" s="1">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K15" s="1">
         <v>231</v>
       </c>
       <c r="L15" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M15" s="1">
         <v>1467</v>
@@ -2618,7 +2617,7 @@
         <v>1465</v>
       </c>
       <c r="R15" s="1">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2626,11 +2625,11 @@
         <v>-0.39</v>
       </c>
       <c r="V15" s="1">
-        <v>-4.2300000000000004</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -2638,7 +2637,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="AC15" s="1"/>
     </row>
@@ -2647,74 +2646,74 @@
         <v>50</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0489999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="C16" s="1">
-        <v>218.4</v>
+        <v>217.1</v>
       </c>
       <c r="D16" s="1">
         <v>0.65</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F16" s="1">
         <v>0.26</v>
       </c>
       <c r="G16" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="1">
         <v>0.52</v>
       </c>
       <c r="I16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J16" s="1">
         <v>815</v>
       </c>
       <c r="K16" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L16" s="1">
         <v>474</v>
       </c>
       <c r="M16" s="1">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="N16" s="1">
         <v>815</v>
       </c>
       <c r="O16" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P16" s="1">
         <v>476</v>
       </c>
       <c r="Q16" s="1">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="R16" s="1">
-        <v>-2.5299999999999998</v>
+        <v>-2.59</v>
       </c>
       <c r="S16" s="1">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
-        <v>-0.62</v>
+        <v>-0.65</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="Y16" s="1">
         <v>0.41</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -2724,16 +2723,16 @@
         <v>51</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>291.89999999999998</v>
+        <v>390.8</v>
       </c>
       <c r="D17" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E17" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="1">
         <v>0.25</v>
@@ -2742,10 +2741,10 @@
         <v>0.51</v>
       </c>
       <c r="H17" s="1">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I17" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J17" s="1">
         <v>779</v>
@@ -2754,25 +2753,25 @@
         <v>232</v>
       </c>
       <c r="L17" s="1">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M17" s="1">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="N17" s="1">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O17" s="1">
         <v>228</v>
       </c>
       <c r="P17" s="1">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="1">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="R17" s="1">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="S17" s="1">
         <v>0.38</v>
@@ -2786,17 +2785,17 @@
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="AC17" s="1"/>
     </row>
@@ -2805,28 +2804,28 @@
         <v>52</v>
       </c>
       <c r="B18" s="1">
-        <v>1.016</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>484.7</v>
+        <v>422.6</v>
       </c>
       <c r="D18" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E18" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.51</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H18" s="1">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="I18" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="1">
         <v>836</v>
@@ -2863,7 +2862,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2874,22 +2873,22 @@
         <v>53</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0529999999999999</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>448.3</v>
+        <v>400.4</v>
       </c>
       <c r="D19" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F19" s="1">
         <v>0.13</v>
       </c>
       <c r="G19" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H19" s="1">
         <v>0.59</v>
@@ -2927,7 +2926,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -2943,19 +2942,19 @@
         <v>54</v>
       </c>
       <c r="B20" s="1">
-        <v>1.071</v>
+        <v>1.052</v>
       </c>
       <c r="C20" s="1">
-        <v>349.4</v>
+        <v>359.1</v>
       </c>
       <c r="D20" s="1">
         <v>0.66</v>
       </c>
       <c r="E20" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F20" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G20" s="1">
         <v>0.5</v>
@@ -2998,17 +2997,17 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3057,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="15">
-      <formula>J2&lt;784</formula>
+      <formula>J2&lt;782</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
@@ -3071,7 +3070,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="13">
-      <formula>K2&lt;234</formula>
+      <formula>K2&lt;232</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
@@ -3084,7 +3083,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="11">
-      <formula>L2&lt;459</formula>
+      <formula>L2&lt;457</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M20">
@@ -3097,7 +3096,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="9">
-      <formula>M2&lt;1471</formula>
+      <formula>M2&lt;1468</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N20">
@@ -3110,7 +3109,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="7">
-      <formula>N2&lt;783</formula>
+      <formula>N2&lt;781</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O20">
@@ -3123,7 +3122,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="5">
-      <formula>O2&lt;230</formula>
+      <formula>O2&lt;228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P20">
@@ -3136,7 +3135,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="3">
-      <formula>P2&lt;462</formula>
+      <formula>P2&lt;459</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q20">
@@ -3149,7 +3148,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="1">
-      <formula>Q2&lt;1469</formula>
+      <formula>Q2&lt;1465</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3161,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,16 +3254,16 @@
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0209999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C2" s="1">
-        <v>220.6</v>
+        <v>309</v>
       </c>
       <c r="D2" s="1">
         <v>0.66</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F2" s="1">
         <v>0.2</v>
@@ -3276,7 +3275,7 @@
         <v>0.36</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>839</v>
@@ -3291,16 +3290,16 @@
         <v>1591</v>
       </c>
       <c r="N2" s="1">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O2" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P2" s="1">
         <v>495</v>
       </c>
       <c r="Q2" s="1">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -3318,22 +3317,22 @@
         <v>65</v>
       </c>
       <c r="B3" s="1">
-        <v>1.018</v>
+        <v>1.028</v>
       </c>
       <c r="C3" s="1">
-        <v>276.7</v>
+        <v>242.1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="G3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
         <v>0.56000000000000005</v>
@@ -3354,28 +3353,28 @@
         <v>1512</v>
       </c>
       <c r="N3" s="1">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O3" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P3" s="1">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q3" s="1">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.61</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -3385,28 +3384,28 @@
         <v>66</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0629999999999999</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>209.4</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E4" s="1">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1">
         <v>839</v>
@@ -3415,29 +3414,29 @@
         <v>263</v>
       </c>
       <c r="L4" s="1">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M4" s="1">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="N4" s="1">
         <v>839</v>
       </c>
       <c r="O4" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P4" s="1">
         <v>496</v>
       </c>
       <c r="Q4" s="1">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -3452,28 +3451,28 @@
         <v>67</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0269999999999999</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>337.9</v>
+        <v>473.1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="1">
         <v>0.51</v>
       </c>
       <c r="F5" s="1">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G5" s="1">
         <v>0.51</v>
       </c>
       <c r="H5" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="I5" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>777</v>
@@ -3494,10 +3493,10 @@
         <v>263</v>
       </c>
       <c r="P5" s="1">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="1">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -3510,7 +3509,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AA5" s="1"/>
     </row>
@@ -3519,46 +3518,46 @@
         <v>68</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1499999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="C6" s="1">
-        <v>163.6</v>
+        <v>6.3</v>
       </c>
       <c r="D6" s="1">
         <v>0.65</v>
       </c>
       <c r="E6" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.49</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.51</v>
-      </c>
       <c r="J6" s="1">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="K6" s="1">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L6" s="1">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M6" s="1">
-        <v>1569</v>
+        <v>1583</v>
       </c>
       <c r="N6" s="1">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="O6" s="1">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P6" s="1">
         <v>488</v>
@@ -3567,14 +3566,14 @@
         <v>1575</v>
       </c>
       <c r="R6" s="1">
-        <v>2.04</v>
+        <v>0.9</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1">
-        <v>0.46</v>
+        <v>1.69</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -3586,25 +3585,25 @@
         <v>69</v>
       </c>
       <c r="B7" s="1">
-        <v>1.004</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>206.1</v>
+        <v>198.8</v>
       </c>
       <c r="D7" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E7" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="G7" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="1">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I7" s="1">
         <v>0.5</v>
@@ -3635,7 +3634,7 @@
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>-2.14</v>
+        <v>-2.16</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -3653,28 +3652,28 @@
         <v>70</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0049999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="C8" s="1">
-        <v>266.89999999999998</v>
+        <v>312.5</v>
       </c>
       <c r="D8" s="1">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F8" s="1">
         <v>0.31</v>
       </c>
       <c r="G8" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H8" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I8" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="1">
         <v>774</v>
@@ -3695,28 +3694,28 @@
         <v>233</v>
       </c>
       <c r="P8" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q8" s="1">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1">
-        <v>4.78</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <v>-1.96</v>
+        <v>-1.93</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -3724,10 +3723,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0369999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>198.4</v>
+        <v>183.4</v>
       </c>
       <c r="D9" s="1">
         <v>0.67</v>
@@ -3745,16 +3744,16 @@
         <v>0.6</v>
       </c>
       <c r="I9" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J9" s="1">
         <v>753</v>
       </c>
       <c r="K9" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L9" s="1">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M9" s="1">
         <v>1456</v>
@@ -3763,30 +3762,30 @@
         <v>752</v>
       </c>
       <c r="O9" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P9" s="1">
         <v>454</v>
       </c>
       <c r="Q9" s="1">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1">
-        <v>3.72</v>
+        <v>3.56</v>
       </c>
       <c r="U9" s="1">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AA9" s="1"/>
     </row>
@@ -3795,31 +3794,31 @@
         <v>72</v>
       </c>
       <c r="B10" s="1">
-        <v>1.012</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>326.7</v>
+        <v>369.4</v>
       </c>
       <c r="D10" s="1">
         <v>0.67</v>
       </c>
       <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.51</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.52</v>
-      </c>
       <c r="H10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.49</v>
       </c>
-      <c r="I10" s="1">
-        <v>0.5</v>
-      </c>
       <c r="J10" s="1">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K10" s="1">
         <v>264</v>
@@ -3828,37 +3827,37 @@
         <v>469</v>
       </c>
       <c r="M10" s="1">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="N10" s="1">
         <v>773</v>
       </c>
       <c r="O10" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P10" s="1">
         <v>465</v>
       </c>
       <c r="Q10" s="1">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="V10" s="1">
-        <v>-0.36</v>
+        <v>-0.43</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -3866,10 +3865,10 @@
         <v>73</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.016</v>
       </c>
       <c r="C11" s="1">
-        <v>230.7</v>
+        <v>251.3</v>
       </c>
       <c r="D11" s="1">
         <v>0.67</v>
@@ -3884,10 +3883,10 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="I11" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="1">
         <v>780</v>
@@ -3908,26 +3907,26 @@
         <v>251</v>
       </c>
       <c r="P11" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q11" s="1">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="R11" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -3937,10 +3936,10 @@
         <v>74</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.022</v>
       </c>
       <c r="C12" s="1">
-        <v>238.2</v>
+        <v>187.2</v>
       </c>
       <c r="D12" s="1">
         <v>0.66</v>
@@ -3952,10 +3951,10 @@
         <v>0.05</v>
       </c>
       <c r="G12" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H12" s="1">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I12" s="1">
         <v>0.5</v>
@@ -3964,16 +3963,16 @@
         <v>816</v>
       </c>
       <c r="K12" s="1">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L12" s="1">
         <v>482</v>
       </c>
       <c r="M12" s="1">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="N12" s="1">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O12" s="1">
         <v>267</v>
@@ -3982,25 +3981,25 @@
         <v>486</v>
       </c>
       <c r="Q12" s="1">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="R12" s="1">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="W12" s="1">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -4008,13 +4007,13 @@
         <v>75</v>
       </c>
       <c r="B13" s="1">
-        <v>1.008</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>233.4</v>
+        <v>213.5</v>
       </c>
       <c r="D13" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E13" s="1">
         <v>0.49</v>
@@ -4023,10 +4022,10 @@
         <v>0.35</v>
       </c>
       <c r="G13" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="1">
         <v>0.5</v>
@@ -4044,7 +4043,7 @@
         <v>1504</v>
       </c>
       <c r="N13" s="1">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O13" s="1">
         <v>254</v>
@@ -4053,24 +4052,24 @@
         <v>463</v>
       </c>
       <c r="Q13" s="1">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="R13" s="1">
-        <v>-0.59</v>
+        <v>-0.62</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AA13" s="1"/>
     </row>
@@ -4079,28 +4078,28 @@
         <v>76</v>
       </c>
       <c r="B14" s="1">
-        <v>1.091</v>
+        <v>1.042</v>
       </c>
       <c r="C14" s="1">
-        <v>141.9</v>
+        <v>126.9</v>
       </c>
       <c r="D14" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F14" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="G14" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="1">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="I14" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="1">
         <v>799</v>
@@ -4118,20 +4117,20 @@
         <v>798</v>
       </c>
       <c r="O14" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P14" s="1">
         <v>467</v>
       </c>
       <c r="Q14" s="1">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1">
-        <v>-0.76</v>
+        <v>-0.74</v>
       </c>
       <c r="T14" s="1">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -4140,7 +4139,7 @@
         <v>0.41</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -4150,28 +4149,28 @@
         <v>77</v>
       </c>
       <c r="B15" s="1">
-        <v>1.004</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>139.6</v>
+        <v>155.4</v>
       </c>
       <c r="D15" s="1">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="E15" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G15" s="1">
         <v>0.5</v>
       </c>
       <c r="H15" s="1">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I15" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J15" s="1">
         <v>807</v>
@@ -4186,29 +4185,29 @@
         <v>1542</v>
       </c>
       <c r="N15" s="1">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O15" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P15" s="1">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q15" s="1">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1">
-        <v>-2.2599999999999998</v>
+        <v>-2.21</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -4221,10 +4220,10 @@
         <v>78</v>
       </c>
       <c r="B16" s="1">
-        <v>1.131</v>
+        <v>1.292</v>
       </c>
       <c r="C16" s="1">
-        <v>339.7</v>
+        <v>231.6</v>
       </c>
       <c r="D16" s="1">
         <v>0.66</v>
@@ -4233,16 +4232,16 @@
         <v>0.51</v>
       </c>
       <c r="F16" s="1">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="G16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H16" s="1">
         <v>0.53</v>
       </c>
       <c r="I16" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="1">
         <v>776</v>
@@ -4263,10 +4262,10 @@
         <v>260</v>
       </c>
       <c r="P16" s="1">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="1">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1">
@@ -4274,12 +4273,12 @@
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1">
@@ -4292,31 +4291,31 @@
         <v>79</v>
       </c>
       <c r="B17" s="1">
-        <v>1.014</v>
+        <v>1.044</v>
       </c>
       <c r="C17" s="1">
-        <v>220</v>
+        <v>182.4</v>
       </c>
       <c r="D17" s="1">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="E17" s="1">
         <v>0.49</v>
       </c>
       <c r="F17" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G17" s="1">
         <v>0.5</v>
       </c>
       <c r="H17" s="1">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I17" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="J17" s="1">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K17" s="1">
         <v>262</v>
@@ -4325,34 +4324,34 @@
         <v>478</v>
       </c>
       <c r="M17" s="1">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="N17" s="1">
         <v>807</v>
       </c>
       <c r="O17" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P17" s="1">
         <v>481</v>
       </c>
       <c r="Q17" s="1">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R17" s="1">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="S17" s="1">
-        <v>-1.83</v>
+        <v>-1.93</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="X17" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -4363,16 +4362,16 @@
         <v>80</v>
       </c>
       <c r="B18" s="1">
-        <v>1.099</v>
+        <v>1.089</v>
       </c>
       <c r="C18" s="1">
-        <v>264</v>
+        <v>266.7</v>
       </c>
       <c r="D18" s="1">
         <v>0.67</v>
       </c>
       <c r="E18" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F18" s="1">
         <v>0.33</v>
@@ -4381,10 +4380,10 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="1">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I18" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J18" s="1">
         <v>752</v>
@@ -4399,38 +4398,38 @@
         <v>1446</v>
       </c>
       <c r="N18" s="1">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O18" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="1">
         <v>449</v>
       </c>
       <c r="Q18" s="1">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="U18" s="1">
         <v>1.37</v>
       </c>
       <c r="V18" s="1">
-        <v>-1.51</v>
+        <v>-1.5</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -4438,13 +4437,13 @@
         <v>81</v>
       </c>
       <c r="B19" s="1">
-        <v>1.016</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>305.39999999999998</v>
+        <v>273.39999999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E19" s="1">
         <v>0.5</v>
@@ -4453,25 +4452,25 @@
         <v>0.27</v>
       </c>
       <c r="G19" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="1">
         <v>0.64</v>
       </c>
       <c r="I19" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J19" s="1">
         <v>761</v>
       </c>
       <c r="K19" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L19" s="1">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M19" s="1">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="N19" s="1">
         <v>761</v>
@@ -4480,32 +4479,32 @@
         <v>236</v>
       </c>
       <c r="P19" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="1">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="R19" s="1">
         <v>0.54</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1">
-        <v>4.8899999999999997</v>
+        <v>4.97</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
-        <v>-1.86</v>
+        <v>-1.88</v>
       </c>
       <c r="W19" s="1">
         <v>0.16</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -4513,40 +4512,40 @@
         <v>82</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0649999999999999</v>
+        <v>1.145</v>
       </c>
       <c r="C20" s="1">
-        <v>182</v>
+        <v>174.1</v>
       </c>
       <c r="D20" s="1">
         <v>0.67</v>
       </c>
       <c r="E20" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="1">
         <v>0.32</v>
       </c>
       <c r="G20" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H20" s="1">
         <v>0.6</v>
       </c>
       <c r="I20" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="1">
         <v>754</v>
       </c>
       <c r="K20" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L20" s="1">
         <v>461</v>
       </c>
       <c r="M20" s="1">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="N20" s="1">
         <v>754</v>
@@ -4561,25 +4560,25 @@
         <v>1449</v>
       </c>
       <c r="R20" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
       <c r="U20" s="1">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AA20" s="1"/>
     </row>
@@ -4588,31 +4587,31 @@
         <v>83</v>
       </c>
       <c r="B21" s="1">
-        <v>1.2450000000000001</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>237.1</v>
+        <v>308.7</v>
       </c>
       <c r="D21" s="1">
         <v>0.66</v>
       </c>
       <c r="E21" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F21" s="1">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="G21" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="1">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I21" s="1">
         <v>0.5</v>
       </c>
       <c r="J21" s="1">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K21" s="1">
         <v>254</v>
@@ -4621,7 +4620,7 @@
         <v>467</v>
       </c>
       <c r="M21" s="1">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="N21" s="1">
         <v>777</v>
@@ -4636,26 +4635,26 @@
         <v>1491</v>
       </c>
       <c r="R21" s="1">
-        <v>-0.73</v>
+        <v>-0.71</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="V21" s="1">
-        <v>-0.59</v>
+        <v>-0.64</v>
       </c>
       <c r="W21" s="1">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -4663,16 +4662,16 @@
         <v>84</v>
       </c>
       <c r="B22" s="1">
-        <v>1.016</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>335</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F22" s="1">
         <v>0.31</v>
@@ -4681,10 +4680,10 @@
         <v>0.51</v>
       </c>
       <c r="H22" s="1">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I22" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J22" s="1">
         <v>776</v>
@@ -4693,44 +4692,44 @@
         <v>238</v>
       </c>
       <c r="L22" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M22" s="1">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="N22" s="1">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O22" s="1">
         <v>235</v>
       </c>
       <c r="P22" s="1">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="1">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1">
-        <v>-0.31</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="T22" s="1">
-        <v>4.5599999999999996</v>
+        <v>4.62</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
-        <v>-1.93</v>
+        <v>-1.91</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1">
         <v>0.31</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -4738,25 +4737,25 @@
         <v>85</v>
       </c>
       <c r="B23" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.042</v>
       </c>
       <c r="C23" s="1">
-        <v>227.5</v>
+        <v>206.6</v>
       </c>
       <c r="D23" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G23" s="1">
         <v>0.51</v>
       </c>
-      <c r="F23" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.49</v>
-      </c>
       <c r="H23" s="1">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I23" s="1">
         <v>0.5</v>
@@ -4765,13 +4764,13 @@
         <v>755</v>
       </c>
       <c r="K23" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L23" s="1">
         <v>461</v>
       </c>
       <c r="M23" s="1">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="N23" s="1">
         <v>754</v>
@@ -4780,20 +4779,20 @@
         <v>239</v>
       </c>
       <c r="P23" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="1">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="T23" s="1">
-        <v>3.39</v>
+        <v>3.59</v>
       </c>
       <c r="U23" s="1">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -4801,10 +4800,10 @@
         <v>0.3</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="Z23" s="1">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AA23" s="1"/>
     </row>
@@ -4813,31 +4812,31 @@
         <v>86</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0409999999999999</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>294.7</v>
+        <v>230.7</v>
       </c>
       <c r="D24" s="1">
         <v>0.66</v>
       </c>
       <c r="E24" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="1">
         <v>0.31</v>
       </c>
       <c r="G24" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H24" s="1">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I24" s="1">
         <v>0.5</v>
       </c>
       <c r="J24" s="1">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K24" s="1">
         <v>260</v>
@@ -4846,7 +4845,7 @@
         <v>461</v>
       </c>
       <c r="M24" s="1">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="N24" s="1">
         <v>774</v>
@@ -4855,21 +4854,21 @@
         <v>259</v>
       </c>
       <c r="P24" s="1">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q24" s="1">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1">
-        <v>-1.06</v>
+        <v>-1.05</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1">
-        <v>2.29</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V24" s="1">
-        <v>-0.24</v>
+        <v>-0.27</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1">
@@ -4880,7 +4879,7 @@
         <v>0.46</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -4888,19 +4887,19 @@
         <v>87</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0249999999999999</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>210.2</v>
+        <v>187.9</v>
       </c>
       <c r="D25" s="1">
         <v>0.66</v>
       </c>
       <c r="E25" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="F25" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="G25" s="1">
         <v>0.51</v>
@@ -4936,24 +4935,24 @@
         <v>1502</v>
       </c>
       <c r="R25" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="S25" s="1">
-        <v>-0.48</v>
+        <v>-0.5</v>
       </c>
       <c r="T25" s="1">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="X25" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -4963,28 +4962,28 @@
         <v>88</v>
       </c>
       <c r="B26" s="1">
-        <v>1.0760000000000001</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>152.30000000000001</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="D26" s="1">
         <v>0.64</v>
       </c>
       <c r="E26" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F26" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G26" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="1">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I26" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J26" s="1">
         <v>805</v>
@@ -4993,13 +4992,13 @@
         <v>264</v>
       </c>
       <c r="L26" s="1">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M26" s="1">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="N26" s="1">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O26" s="1">
         <v>266</v>
@@ -5008,24 +5007,24 @@
         <v>481</v>
       </c>
       <c r="Q26" s="1">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="R26" s="1">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="S26" s="1">
-        <v>-2</v>
+        <v>-1.95</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="W26" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="X26" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -5038,19 +5037,19 @@
         <v>89</v>
       </c>
       <c r="B27" s="1">
-        <v>1.024</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>134.19999999999999</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E27" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F27" s="1">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="G27" s="1">
         <v>0.51</v>
@@ -5065,16 +5064,16 @@
         <v>778</v>
       </c>
       <c r="K27" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L27" s="1">
         <v>460</v>
       </c>
       <c r="M27" s="1">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="N27" s="1">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O27" s="1">
         <v>257</v>
@@ -5083,28 +5082,28 @@
         <v>458</v>
       </c>
       <c r="Q27" s="1">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="R27" s="1">
         <v>-0.13</v>
       </c>
       <c r="S27" s="1">
-        <v>-1.19</v>
+        <v>-1.18</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1">
-        <v>2.21</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="X27" s="1">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="AA27" s="1"/>
     </row>
@@ -5113,19 +5112,19 @@
         <v>90</v>
       </c>
       <c r="B28" s="1">
-        <v>1.089</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>187.4</v>
+        <v>225.6</v>
       </c>
       <c r="D28" s="1">
         <v>0.67</v>
       </c>
       <c r="E28" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F28" s="1">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="G28" s="1">
         <v>0.51</v>
@@ -5134,7 +5133,7 @@
         <v>0.64</v>
       </c>
       <c r="I28" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J28" s="1">
         <v>752</v>
@@ -5161,27 +5160,27 @@
         <v>1436</v>
       </c>
       <c r="R28" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
-        <v>3.99</v>
+        <v>4.07</v>
       </c>
       <c r="U28" s="1">
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="V28" s="1">
-        <v>-1.52</v>
+        <v>-1.54</v>
       </c>
       <c r="W28" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="Z28" s="1">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="AA28" s="1">
         <v>0.51</v>
@@ -5192,16 +5191,16 @@
         <v>91</v>
       </c>
       <c r="B29" s="1">
-        <v>1.026</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>226.7</v>
+        <v>212.3</v>
       </c>
       <c r="D29" s="1">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="E29" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="1">
         <v>0.32</v>
@@ -5213,7 +5212,7 @@
         <v>0.64</v>
       </c>
       <c r="I29" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="1">
         <v>754</v>
@@ -5231,39 +5230,39 @@
         <v>753</v>
       </c>
       <c r="O29" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P29" s="1">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="1">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="T29" s="1">
-        <v>3.71</v>
+        <v>3.63</v>
       </c>
       <c r="U29" s="1">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V29" s="1">
-        <v>-1.48</v>
+        <v>-1.52</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="Z29" s="1">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -5271,31 +5270,31 @@
         <v>92</v>
       </c>
       <c r="B30" s="1">
-        <v>1.018</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>223.4</v>
+        <v>240.2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E30" s="1">
         <v>0.49</v>
       </c>
       <c r="F30" s="1">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G30" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H30" s="1">
         <v>0.64</v>
       </c>
       <c r="I30" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="1">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K30" s="1">
         <v>239</v>
@@ -5304,7 +5303,7 @@
         <v>451</v>
       </c>
       <c r="M30" s="1">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="N30" s="1">
         <v>764</v>
@@ -5322,27 +5321,27 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="S30" s="1">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="T30" s="1">
-        <v>4.72</v>
+        <v>4.68</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1">
-        <v>-1.89</v>
+        <v>-1.88</v>
       </c>
       <c r="W30" s="1">
         <v>0.16</v>
       </c>
       <c r="X30" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -5350,19 +5349,19 @@
         <v>93</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0880000000000001</v>
+        <v>1.048</v>
       </c>
       <c r="C31" s="1">
-        <v>214.6</v>
+        <v>207.9</v>
       </c>
       <c r="D31" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F31" s="1">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G31" s="1">
         <v>0.51</v>
@@ -5371,7 +5370,7 @@
         <v>0.6</v>
       </c>
       <c r="I31" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J31" s="1">
         <v>756</v>
@@ -5386,16 +5385,16 @@
         <v>1462</v>
       </c>
       <c r="N31" s="1">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O31" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P31" s="1">
         <v>456</v>
       </c>
       <c r="Q31" s="1">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="R31" s="1">
         <v>0.03</v>
@@ -5407,20 +5406,20 @@
         <v>3.57</v>
       </c>
       <c r="U31" s="1">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
         <v>0.24</v>
       </c>
       <c r="X31" s="1">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="Z31" s="1">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="AA31" s="1"/>
     </row>
@@ -5429,16 +5428,16 @@
         <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>1.1020000000000001</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="C32" s="1">
-        <v>231.8</v>
+        <v>187.7</v>
       </c>
       <c r="D32" s="1">
         <v>0.65</v>
       </c>
       <c r="E32" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F32" s="1">
         <v>0.32</v>
@@ -5447,13 +5446,13 @@
         <v>0.51</v>
       </c>
       <c r="H32" s="1">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I32" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="1">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K32" s="1">
         <v>257</v>
@@ -5462,10 +5461,10 @@
         <v>462</v>
       </c>
       <c r="M32" s="1">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="N32" s="1">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O32" s="1">
         <v>255</v>
@@ -5474,33 +5473,33 @@
         <v>461</v>
       </c>
       <c r="Q32" s="1">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="R32" s="1">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="S32" s="1">
-        <v>-1.04</v>
+        <v>-1.03</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="V32" s="1">
-        <v>-0.33</v>
+        <v>-0.31</v>
       </c>
       <c r="W32" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="X32" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -5508,22 +5507,22 @@
         <v>95</v>
       </c>
       <c r="B33" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.016</v>
       </c>
       <c r="C33" s="1">
-        <v>204</v>
+        <v>206.7</v>
       </c>
       <c r="D33" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E33" s="1">
         <v>0.51</v>
       </c>
       <c r="F33" s="1">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G33" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H33" s="1">
         <v>0.63</v>
@@ -5532,10 +5531,10 @@
         <v>0.5</v>
       </c>
       <c r="J33" s="1">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K33" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L33" s="1">
         <v>456</v>
@@ -5556,34 +5555,34 @@
         <v>1439</v>
       </c>
       <c r="R33" s="1">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="S33" s="1">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="T33" s="1">
-        <v>3.94</v>
+        <v>3.98</v>
       </c>
       <c r="U33" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="V33" s="1">
-        <v>-1.54</v>
+        <v>-1.61</v>
       </c>
       <c r="W33" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="X33" s="1">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -5633,7 +5632,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="15">
-      <formula>J2&lt;757</formula>
+      <formula>J2&lt;755</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K33">
@@ -5646,7 +5645,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="13">
-      <formula>K2&lt;242</formula>
+      <formula>K2&lt;240</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L33">
@@ -5659,7 +5658,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>L2&lt;454</formula>
+      <formula>L2&lt;453</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M33">
@@ -5672,7 +5671,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula>M2&lt;1451</formula>
+      <formula>M2&lt;1449</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N33">
@@ -5685,7 +5684,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="7">
-      <formula>N2&lt;755</formula>
+      <formula>N2&lt;754</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O33">
@@ -5698,7 +5697,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>O2&lt;238</formula>
+      <formula>O2&lt;236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P33">
@@ -5711,7 +5710,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;449</formula>
+      <formula>P2&lt;447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q33">
